--- a/grillenotation_TP.xlsx
+++ b/grillenotation_TP.xlsx
@@ -1,18 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22624"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NEWZA\Desktop\TP3IMACS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7DCE142A-937D-4F4C-984A-2481301942B0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="0" windowWidth="25760" windowHeight="23400" tabRatio="500"/>
+    <workbookView xWindow="225" yWindow="0" windowWidth="25755" windowHeight="23400" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Binôme GrD" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Feuil1!$A$7:$B$21</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -22,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
   <si>
     <t>commentaires</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -123,12 +130,117 @@
   </si>
   <si>
     <t>Bonus (fonctionnalité supplémentaire, …)</t>
+  </si>
+  <si>
+    <t>Binôme 1</t>
+  </si>
+  <si>
+    <t>Binôme 2</t>
+  </si>
+  <si>
+    <t>Binôme 3</t>
+  </si>
+  <si>
+    <t>Binôme 4</t>
+  </si>
+  <si>
+    <t>Binôme 5</t>
+  </si>
+  <si>
+    <t>Binôme 6</t>
+  </si>
+  <si>
+    <t>Binôme 7</t>
+  </si>
+  <si>
+    <t>Binôme 8</t>
+  </si>
+  <si>
+    <t>Binôme 9</t>
+  </si>
+  <si>
+    <t>Binôme 10</t>
+  </si>
+  <si>
+    <t>Binôme 11</t>
+  </si>
+  <si>
+    <t>Binôme 12</t>
+  </si>
+  <si>
+    <t>faye serigme fallou</t>
+  </si>
+  <si>
+    <t>tungesvik tale</t>
+  </si>
+  <si>
+    <t>bah souleymane</t>
+  </si>
+  <si>
+    <t>grivelet bertrand</t>
+  </si>
+  <si>
+    <t>tlemsani samuel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marmet arnaud </t>
+  </si>
+  <si>
+    <t>aubert jérémy</t>
+  </si>
+  <si>
+    <t>gueissaz marc</t>
+  </si>
+  <si>
+    <t>klander maxime</t>
+  </si>
+  <si>
+    <t>potiers léo</t>
+  </si>
+  <si>
+    <t>tourneret mylene</t>
+  </si>
+  <si>
+    <t>marin paula</t>
+  </si>
+  <si>
+    <t>émilie estival</t>
+  </si>
+  <si>
+    <t>sylvain goimard</t>
+  </si>
+  <si>
+    <t>truong nhat luan</t>
+  </si>
+  <si>
+    <t>legrand antoine</t>
+  </si>
+  <si>
+    <t>abidar soundous</t>
+  </si>
+  <si>
+    <t>rozieres juliette</t>
+  </si>
+  <si>
+    <t>arsac lucas</t>
+  </si>
+  <si>
+    <t>pouny claire</t>
+  </si>
+  <si>
+    <t>djaker sylia</t>
+  </si>
+  <si>
+    <t>thebault tristant</t>
+  </si>
+  <si>
+    <t>broucquart vincent</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -557,6 +669,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -879,23 +999,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="A23" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="23" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.375" customWidth="1"/>
+    <col min="5" max="5" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14" thickBot="1"/>
-    <row r="2" spans="1:5" ht="14" thickBot="1">
+    <row r="1" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>22</v>
       </c>
@@ -905,17 +1025,17 @@
       </c>
       <c r="E2" s="20"/>
     </row>
-    <row r="3" spans="1:5" ht="14" thickBot="1">
+    <row r="3" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="D3" s="1"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" s="22"/>
       <c r="D4" s="1"/>
       <c r="E4" s="22"/>
     </row>
-    <row r="5" spans="1:5" ht="68" customHeight="1">
+    <row r="5" spans="1:5" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
@@ -926,8 +1046,8 @@
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
     </row>
-    <row r="6" spans="1:5" ht="14" thickBot="1"/>
-    <row r="7" spans="1:5" ht="67" thickTop="1" thickBot="1">
+    <row r="6" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:5" ht="65.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>16</v>
       </c>
@@ -937,7 +1057,7 @@
       </c>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
@@ -946,7 +1066,7 @@
       <c r="D8" s="8"/>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>1</v>
       </c>
@@ -959,7 +1079,7 @@
       </c>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:5" ht="26">
+    <row r="10" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>27</v>
       </c>
@@ -972,7 +1092,7 @@
       </c>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
@@ -985,7 +1105,7 @@
       </c>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>0</v>
       </c>
@@ -998,7 +1118,7 @@
       </c>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:5" ht="39">
+    <row r="13" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>30</v>
       </c>
@@ -1011,7 +1131,7 @@
       </c>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>6</v>
       </c>
@@ -1024,7 +1144,7 @@
       </c>
       <c r="E14" s="9"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>3</v>
       </c>
@@ -1033,7 +1153,7 @@
       <c r="D15" s="10"/>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:5" ht="26">
+    <row r="16" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>7</v>
       </c>
@@ -1046,7 +1166,7 @@
       </c>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" spans="1:5" ht="26">
+    <row r="17" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>28</v>
       </c>
@@ -1059,7 +1179,7 @@
       </c>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" spans="1:5" ht="26">
+    <row r="18" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>8</v>
       </c>
@@ -1072,7 +1192,7 @@
       </c>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>29</v>
       </c>
@@ -1085,7 +1205,7 @@
       </c>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="1:5" ht="26">
+    <row r="20" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>9</v>
       </c>
@@ -1098,7 +1218,7 @@
       </c>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" spans="1:5" ht="26">
+    <row r="21" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>10</v>
       </c>
@@ -1111,7 +1231,7 @@
       </c>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" spans="1:5" ht="39">
+    <row r="22" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>18</v>
       </c>
@@ -1124,7 +1244,7 @@
       </c>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>11</v>
       </c>
@@ -1137,7 +1257,7 @@
       </c>
       <c r="E23" s="9"/>
     </row>
-    <row r="24" spans="1:5" ht="26">
+    <row r="24" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>14</v>
       </c>
@@ -1150,7 +1270,7 @@
       </c>
       <c r="E24" s="9"/>
     </row>
-    <row r="25" spans="1:5" ht="26">
+    <row r="25" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>15</v>
       </c>
@@ -1163,7 +1283,7 @@
       </c>
       <c r="E25" s="9"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>12</v>
       </c>
@@ -1176,7 +1296,7 @@
       </c>
       <c r="E26" s="9"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>13</v>
       </c>
@@ -1189,7 +1309,7 @@
       </c>
       <c r="E27" s="9"/>
     </row>
-    <row r="28" spans="1:5" ht="39">
+    <row r="28" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>17</v>
       </c>
@@ -1202,7 +1322,7 @@
       </c>
       <c r="E28" s="9"/>
     </row>
-    <row r="29" spans="1:5" ht="27" thickBot="1">
+    <row r="29" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>31</v>
       </c>
@@ -1215,7 +1335,7 @@
       </c>
       <c r="E29" s="11"/>
     </row>
-    <row r="30" spans="1:5" ht="15" thickTop="1" thickBot="1">
+    <row r="30" spans="1:5" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>19</v>
       </c>
@@ -1230,7 +1350,7 @@
       </c>
       <c r="E30" s="15"/>
     </row>
-    <row r="31" spans="1:5" ht="15" thickTop="1" thickBot="1">
+    <row r="31" spans="1:5" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>21</v>
       </c>
@@ -1245,8 +1365,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15" thickTop="1" thickBot="1"/>
-    <row r="33" spans="1:5" ht="71" customHeight="1" thickBot="1">
+    <row r="32" spans="1:5" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="1:5" ht="71.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="s">
         <v>25</v>
       </c>
@@ -1269,4 +1389,170 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E62B906-2F44-446C-BE95-B66C3D91882A}">
+  <dimension ref="A1:B23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>